--- a/src/test/java/com/CMS/TestData/TestData.xlsx
+++ b/src/test/java/com/CMS/TestData/TestData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMBIT\Documents\GitHub\CMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMBIT\Documents\GitHub\CMS\src\test\java\com\CMS\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266DAEDA-E696-4A56-9D45-DA55666AB3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0309F6-1ADC-4CBC-A088-152688009BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6792" yWindow="1332" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>username</t>
   </si>
@@ -57,6 +58,18 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>newPassword</t>
+  </si>
+  <si>
+    <t>confirmNewPassword</t>
+  </si>
+  <si>
+    <t>Abcd123</t>
+  </si>
+  <si>
+    <t>Abcdefgh</t>
   </si>
 </sst>
 </file>
@@ -376,16 +389,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,7 +406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>70240</v>
       </c>
@@ -401,7 +414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>123456</v>
       </c>
@@ -409,7 +422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>70240</v>
       </c>
@@ -417,7 +430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>123456</v>
       </c>
@@ -425,7 +438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -433,7 +446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>70240</v>
       </c>
@@ -441,7 +454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>70240</v>
       </c>
@@ -449,7 +462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>70240</v>
       </c>
@@ -457,12 +470,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>70240</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D63D41-D355-4170-AA20-EFDDA293F5C2}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
